--- a/notes.xlsx
+++ b/notes.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>oop</t>
   </si>
@@ -75,10 +75,13 @@
     <t>VUE_APP_WEBSOCKER=wss://gznbzh.gzjd.gov.cn:83</t>
   </si>
   <si>
-    <t>PL_CodeItems  字典管理表    实体缺少字段</t>
-  </si>
-  <si>
-    <t>disable</t>
+    <t>vbs</t>
+  </si>
+  <si>
+    <t>bat</t>
+  </si>
+  <si>
+    <t>lua</t>
   </si>
 </sst>
 </file>
@@ -112,74 +115,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -189,7 +124,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -198,6 +133,73 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -211,9 +213,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -226,16 +228,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -243,14 +245,15 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -271,25 +274,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -301,151 +412,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -456,6 +459,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -489,17 +501,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -519,20 +534,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -547,15 +559,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -564,10 +567,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -576,133 +579,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1064,13 +1067,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H32"/>
+  <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
     <col min="5" max="5" width="22.25" customWidth="1"/>
@@ -1164,13 +1167,23 @@
         <v>18</v>
       </c>
     </row>
-    <row r="32" spans="7:8">
-      <c r="G32" s="2" t="s">
+    <row r="24" spans="1:1">
+      <c r="A24" t="s">
         <v>19</v>
       </c>
-      <c r="H32" t="s">
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" t="s">
         <v>20</v>
       </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="32" spans="7:7">
+      <c r="G32" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/notes.xlsx
+++ b/notes.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="28800" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -115,6 +115,142 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -122,142 +258,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -268,187 +268,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -465,23 +465,17 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -503,9 +497,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -513,8 +509,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -549,13 +545,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -567,10 +567,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -579,133 +579,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1069,8 +1069,8 @@
   <sheetPr/>
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1197,11 +1197,16 @@
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="27.375" customWidth="1"/>
+    <col min="2" max="2" width="24.125" customWidth="1"/>
+    <col min="6" max="6" width="30" customWidth="1"/>
+  </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/notes.xlsx
+++ b/notes.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>oop</t>
   </si>
@@ -82,6 +82,21 @@
   </si>
   <si>
     <t>lua</t>
+  </si>
+  <si>
+    <t>172.16.70.74:9052</t>
+  </si>
+  <si>
+    <t>68.32.106.99:3306</t>
+  </si>
+  <si>
+    <t>bjbd</t>
+  </si>
+  <si>
+    <t>root</t>
+  </si>
+  <si>
+    <t>CCFccf123456</t>
   </si>
 </sst>
 </file>
@@ -94,7 +109,7 @@
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -109,6 +124,12 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="15.8"/>
+      <color rgb="FFA9B7C6"/>
+      <name val="Courier New"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="10.5"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -116,6 +137,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -123,7 +159,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -131,6 +175,67 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -152,110 +257,26 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -268,187 +289,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -462,35 +483,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -509,8 +512,32 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -531,21 +558,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -559,6 +571,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -567,10 +588,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -579,144 +600,147 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1067,17 +1091,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G32"/>
+  <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
     <col min="5" max="5" width="22.25" customWidth="1"/>
     <col min="7" max="7" width="48.5" customWidth="1"/>
+    <col min="8" max="8" width="50.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -1182,8 +1207,34 @@
         <v>21</v>
       </c>
     </row>
+    <row r="27" ht="21" spans="8:8">
+      <c r="H27" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" ht="21" spans="7:7">
+      <c r="G28" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="29" ht="21" spans="7:8">
+      <c r="G29" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="30" ht="21" spans="7:8">
+      <c r="G30" s="2">
+        <v>123456</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
     <row r="32" spans="7:7">
-      <c r="G32" s="2"/>
+      <c r="G32" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1197,7 +1248,7 @@
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>

--- a/notes.xlsx
+++ b/notes.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="23835" windowHeight="10305" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>oop</t>
   </si>
@@ -97,6 +97,33 @@
   </si>
   <si>
     <t>CCFccf123456</t>
+  </si>
+  <si>
+    <t>湖南蓝左网络科技有限公司</t>
+  </si>
+  <si>
+    <t>https://hnlanzuo.com/</t>
+  </si>
+  <si>
+    <t>https://gitee.com/microapp/flash-waimai.git</t>
+  </si>
+  <si>
+    <t>源码下载地址</t>
+  </si>
+  <si>
+    <t>https://microapp.gitee.io/flash-waimai</t>
+  </si>
+  <si>
+    <t>文档地址</t>
+  </si>
+  <si>
+    <t>https://pan.baidu.com/s/1IpN2wYQrirklEqbkbMxTBQ</t>
+  </si>
+  <si>
+    <t>面试资料tw14</t>
+  </si>
+  <si>
+    <t>外卖系统</t>
   </si>
 </sst>
 </file>
@@ -104,10 +131,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -115,6 +142,14 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -143,52 +178,98 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -202,24 +283,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -232,53 +306,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -295,25 +322,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -325,7 +424,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -337,139 +484,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -480,6 +507,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -494,35 +545,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -542,6 +564,35 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -556,30 +607,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -591,7 +618,7 @@
     <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -600,147 +627,153 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1091,16 +1124,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H32"/>
+  <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
-    <col min="5" max="5" width="22.25" customWidth="1"/>
+    <col min="5" max="5" width="25.125" customWidth="1"/>
     <col min="7" max="7" width="48.5" customWidth="1"/>
     <col min="8" max="8" width="50.125" customWidth="1"/>
   </cols>
@@ -1147,7 +1180,7 @@
       </c>
     </row>
     <row r="8" ht="15.75" spans="1:7">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E8" t="s">
@@ -1208,35 +1241,46 @@
       </c>
     </row>
     <row r="27" ht="21" spans="8:8">
-      <c r="H27" s="2" t="s">
+      <c r="H27" s="4" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="28" ht="21" spans="7:7">
-      <c r="G28" s="2" t="s">
+      <c r="G28" s="4" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="29" ht="21" spans="7:8">
-      <c r="G29" s="2" t="s">
+      <c r="G29" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="H29" s="2" t="s">
+      <c r="H29" s="4" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="30" ht="21" spans="7:8">
-      <c r="G30" s="2">
+      <c r="G30" s="4">
         <v>123456</v>
       </c>
-      <c r="H30" s="2" t="s">
+      <c r="H30" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="32" spans="7:7">
-      <c r="G32" s="3"/>
+    <row r="32" spans="5:7">
+      <c r="E32" t="s">
+        <v>27</v>
+      </c>
+      <c r="G32" s="5"/>
+    </row>
+    <row r="34" spans="5:5">
+      <c r="E34" t="s">
+        <v>28</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E34" r:id="rId1" display="https://hnlanzuo.com/" tooltip="https://hnlanzuo.com/"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
@@ -1268,14 +1312,55 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="53.375" customWidth="1"/>
+    <col min="2" max="2" width="17" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A4:B4"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A3" r:id="rId1" display="https://pan.baidu.com/s/1IpN2wYQrirklEqbkbMxTBQ"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>

--- a/notes.xlsx
+++ b/notes.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23835" windowHeight="10305" activeTab="2"/>
+    <workbookView windowWidth="28800" windowHeight="12540" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>oop</t>
   </si>
@@ -124,6 +124,27 @@
   </si>
   <si>
     <t>外卖系统</t>
+  </si>
+  <si>
+    <t>https://www.cbaigui.com/</t>
+  </si>
+  <si>
+    <t>知妖</t>
+  </si>
+  <si>
+    <t>http://pf.bigpixel.cn/zh-CN/pano/861691241748762624.html</t>
+  </si>
+  <si>
+    <t>https://www.wenjuan.com/s/3QFNzuJ/</t>
+  </si>
+  <si>
+    <t>时光邮局</t>
+  </si>
+  <si>
+    <t>http://www.famicn.com/</t>
+  </si>
+  <si>
+    <t>中文家用游戏博物馆</t>
   </si>
 </sst>
 </file>
@@ -131,9 +152,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
@@ -178,6 +199,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -193,47 +229,32 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -245,31 +266,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -283,27 +298,33 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -316,6 +337,90 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -328,7 +433,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -340,163 +475,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -513,8 +534,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -530,21 +551,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -566,15 +572,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -588,7 +585,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -607,6 +619,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -615,10 +636,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -627,16 +648,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -645,115 +666,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1312,13 +1333,13 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="53.375" customWidth="1"/>
     <col min="2" max="2" width="17" customWidth="1"/>
@@ -1353,6 +1374,35 @@
         <v>35</v>
       </c>
       <c r="B4" s="2"/>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>41</v>
+      </c>
+      <c r="B22" t="s">
+        <v>42</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/notes.xlsx
+++ b/notes.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" activeTab="2"/>
+    <workbookView windowWidth="28800" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>oop</t>
   </si>
@@ -103,6 +103,12 @@
   </si>
   <si>
     <t>https://hnlanzuo.com/</t>
+  </si>
+  <si>
+    <t>穷不丧志，富不癫狂</t>
+  </si>
+  <si>
+    <t>造粪机</t>
   </si>
   <si>
     <t>https://gitee.com/microapp/flash-waimai.git</t>
@@ -152,9 +158,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
@@ -199,6 +205,81 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -207,89 +288,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -299,7 +297,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -323,6 +321,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -337,187 +343,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -531,11 +537,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -555,27 +567,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -628,6 +623,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -636,10 +642,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -648,16 +654,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -666,115 +672,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1311,19 +1317,30 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
   <cols>
     <col min="1" max="1" width="27.375" customWidth="1"/>
     <col min="2" max="2" width="24.125" customWidth="1"/>
     <col min="6" max="6" width="30" customWidth="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
@@ -1335,7 +1352,7 @@
   <sheetPr/>
   <dimension ref="A1:B22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
@@ -1347,61 +1364,61 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B4" s="2"/>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B18" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B21" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B22" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/notes.xlsx
+++ b/notes.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>oop</t>
   </si>
@@ -109,6 +109,15 @@
   </si>
   <si>
     <t>造粪机</t>
+  </si>
+  <si>
+    <t>既然吃了没文化的亏，就要吃下别人吃不了的苦</t>
+  </si>
+  <si>
+    <t>我算计着时间</t>
+  </si>
+  <si>
+    <t>时间的帐算的清，感情的帐算不清</t>
   </si>
   <si>
     <t>https://gitee.com/microapp/flash-waimai.git</t>
@@ -159,9 +168,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -199,14 +208,36 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -214,36 +245,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -297,38 +299,45 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -343,181 +352,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -567,6 +576,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -585,17 +609,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -617,15 +635,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -642,10 +651,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -654,16 +663,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -672,13 +681,16 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -690,97 +702,94 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1317,13 +1326,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:B80"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="B80" sqref="B80"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="27.375" customWidth="1"/>
     <col min="2" max="2" width="24.125" customWidth="1"/>
@@ -1338,6 +1347,21 @@
     <row r="2" spans="1:1">
       <c r="A2" t="s">
         <v>30</v>
+      </c>
+    </row>
+    <row r="78" spans="2:2">
+      <c r="B78" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="79" spans="2:2">
+      <c r="B79" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="80" spans="2:2">
+      <c r="B80" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -1364,61 +1388,61 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B3" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B4" s="2"/>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B18" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B21" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B22" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
